--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UserData\Projects\dpcpp-mcml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC855AC-D470-43E5-BA63-270811EE3531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8B1225-A311-4B10-9ABD-851508278DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
